--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,69 +49,75 @@
     <t>thin</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>water</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>okay</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>broken</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
@@ -121,45 +127,39 @@
     <t>bit</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>pieces</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -169,15 +169,15 @@
     <t>3</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -220,46 +220,43 @@
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -634,7 +631,7 @@
         <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -742,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -842,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.703125</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6827956989247311</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C7">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K7">
-        <v>0.734375</v>
+        <v>0.765625</v>
       </c>
       <c r="L7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.676056338028169</v>
+        <v>0.671875</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>63</v>
@@ -992,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6351351351351351</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K9">
-        <v>0.5408895265423243</v>
+        <v>0.5451936872309899</v>
       </c>
       <c r="L9">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M9">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6262135922330098</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C10">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>65</v>
@@ -1092,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6041666666666666</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K11">
-        <v>0.4896265560165975</v>
+        <v>0.4937759336099585</v>
       </c>
       <c r="L11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K12">
-        <v>0.459016393442623</v>
+        <v>0.4467213114754098</v>
       </c>
       <c r="L12">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="M12">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5789473684210527</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K13">
-        <v>0.363914373088685</v>
+        <v>0.3544973544973545</v>
       </c>
       <c r="L13">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>208</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.5625</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K14">
-        <v>0.3253012048192771</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="L14">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>112</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5238095238095238</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K15">
-        <v>0.2962962962962963</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L15">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5101449275362319</v>
+        <v>0.5462184873949579</v>
       </c>
       <c r="C16">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K16">
-        <v>0.2916666666666667</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4888888888888889</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K17">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C18">
         <v>24</v>
@@ -1460,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K18">
-        <v>0.2008032128514056</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K19">
-        <v>0.1774193548387097</v>
+        <v>0.1875</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4074074074074074</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K20">
-        <v>0.176</v>
+        <v>0.184</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1584,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1592,13 +1589,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K21">
-        <v>0.1746031746031746</v>
+        <v>0.1526104417670683</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>104</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,13 +1639,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1660,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K22">
-        <v>0.1538461538461539</v>
+        <v>0.1498685363716039</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1684,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>121</v>
+        <v>970</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1692,13 +1689,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3886255924170616</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1710,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K23">
-        <v>0.1411042944785276</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L23">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1734,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>980</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,13 +1739,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3855421686746988</v>
+        <v>0.3838862559241706</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1760,31 +1757,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K24">
-        <v>0.07857142857142857</v>
+        <v>0.08077994428969359</v>
       </c>
       <c r="L24">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1419</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1792,13 +1789,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3779527559055118</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1810,31 +1807,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K25">
-        <v>0.06951871657754011</v>
+        <v>0.07667316439246263</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>348</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,13 +1839,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.34375</v>
+        <v>0.3779527559055118</v>
       </c>
       <c r="C26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1860,31 +1857,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K26">
-        <v>0.06685236768802229</v>
+        <v>0.05059920106524634</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>335</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1892,13 +1889,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2921348314606741</v>
+        <v>0.359375</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1910,31 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>63</v>
-      </c>
-      <c r="J27" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K27">
-        <v>0.03738317757009346</v>
-      </c>
-      <c r="L27">
-        <v>28</v>
-      </c>
-      <c r="M27">
-        <v>31</v>
-      </c>
-      <c r="N27">
-        <v>0.9</v>
-      </c>
-      <c r="O27">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>721</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1942,13 +1915,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2623762376237624</v>
+        <v>0.34375</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1960,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>149</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1968,13 +1941,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2448979591836735</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1986,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1994,13 +1967,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.211340206185567</v>
+        <v>0.2524752475247525</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2012,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2020,13 +1993,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2051282051282051</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2038,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2046,13 +2019,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2033898305084746</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2064,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2072,13 +2045,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1811594202898551</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2090,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>226</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2124,22 +2097,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1619047619047619</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>52</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>264</v>
@@ -2150,13 +2123,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1587537091988131</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C36">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2168,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>567</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2176,25 +2149,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1582278481012658</v>
+        <v>0.1556195965417868</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2202,25 +2175,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1551724137931035</v>
+        <v>0.150297619047619</v>
       </c>
       <c r="C38">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>294</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2228,13 +2201,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1401273885350318</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2246,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2254,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1355140186915888</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2272,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>185</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2280,13 +2253,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1314285714285714</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2298,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2306,13 +2279,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1308900523560209</v>
+        <v>0.1261682242990654</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2324,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>166</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2332,25 +2305,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.118942731277533</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D43">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2358,25 +2331,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1161048689138577</v>
+        <v>0.1056603773584906</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2384,25 +2357,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.09677419354838709</v>
+        <v>0.1012145748987854</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2410,13 +2383,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.07887323943661972</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2428,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2436,25 +2409,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07829977628635347</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E47">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2462,13 +2435,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07671232876712329</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2480,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2488,25 +2461,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.0642504118616145</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2514,25 +2487,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04447268106734435</v>
+        <v>0.04309252217997465</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E50">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F50">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>752</v>
+        <v>755</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2540,13 +2513,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.0382262996941896</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>0.04</v>
@@ -2558,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
